--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1677,28 +1677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.6195867205571</v>
+        <v>304.0719158052941</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.3851133534535</v>
+        <v>416.0446099109673</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.617130605444</v>
+        <v>376.3378962633411</v>
       </c>
       <c r="AD2" t="n">
-        <v>235619.5867205571</v>
+        <v>304071.9158052941</v>
       </c>
       <c r="AE2" t="n">
-        <v>322385.1133534535</v>
+        <v>416044.6099109673</v>
       </c>
       <c r="AF2" t="n">
         <v>1.082585363797737e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.49869791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>291617.130605444</v>
+        <v>376337.8962633411</v>
       </c>
     </row>
     <row r="3">
@@ -1783,28 +1783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.2540683497297</v>
+        <v>199.1293548937663</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.5842450576708</v>
+        <v>272.4575683326518</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.9635732487254</v>
+        <v>246.4546004076621</v>
       </c>
       <c r="AD3" t="n">
-        <v>150254.0683497297</v>
+        <v>199129.3548937663</v>
       </c>
       <c r="AE3" t="n">
-        <v>205584.2450576707</v>
+        <v>272457.5683326517</v>
       </c>
       <c r="AF3" t="n">
         <v>1.555508293509139e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.09114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>185963.5732487254</v>
+        <v>246454.6004076621</v>
       </c>
     </row>
     <row r="4">
@@ -1889,28 +1889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.484923950536</v>
+        <v>199.3602104945726</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.9001118753241</v>
+        <v>272.773435150305</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.2492941806238</v>
+        <v>246.7403213395606</v>
       </c>
       <c r="AD4" t="n">
-        <v>150484.923950536</v>
+        <v>199360.2104945726</v>
       </c>
       <c r="AE4" t="n">
-        <v>205900.1118753241</v>
+        <v>272773.435150305</v>
       </c>
       <c r="AF4" t="n">
         <v>1.554664520121776e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.09765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>186249.2941806238</v>
+        <v>246740.3213395606</v>
       </c>
     </row>
   </sheetData>
@@ -2186,28 +2186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.7099760352691</v>
+        <v>228.793270935917</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.572920403967</v>
+        <v>313.0450469411156</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.2810487023325</v>
+        <v>283.1684670226311</v>
       </c>
       <c r="AD2" t="n">
-        <v>170709.9760352691</v>
+        <v>228793.270935917</v>
       </c>
       <c r="AE2" t="n">
-        <v>233572.920403967</v>
+        <v>313045.0469411156</v>
       </c>
       <c r="AF2" t="n">
         <v>1.453317040516768e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.81640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>211281.0487023325</v>
+        <v>283168.4670226311</v>
       </c>
     </row>
     <row r="3">
@@ -2292,28 +2292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.911718482414</v>
+        <v>195.2471444252495</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.0110945151423</v>
+        <v>267.1457566985915</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.8268777755173</v>
+        <v>241.6497406207804</v>
       </c>
       <c r="AD3" t="n">
-        <v>146911.718482414</v>
+        <v>195247.1444252495</v>
       </c>
       <c r="AE3" t="n">
-        <v>201011.0945151423</v>
+        <v>267145.7566985915</v>
       </c>
       <c r="AF3" t="n">
         <v>1.674895462158311e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.25390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>181826.8777755173</v>
+        <v>241649.7406207804</v>
       </c>
     </row>
   </sheetData>
@@ -2589,28 +2589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.4677320277917</v>
+        <v>218.5333026584456</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.2955185307996</v>
+        <v>299.0069057060315</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.0799462360037</v>
+        <v>270.470106284364</v>
       </c>
       <c r="AD2" t="n">
-        <v>162467.7320277917</v>
+        <v>218533.3026584456</v>
       </c>
       <c r="AE2" t="n">
-        <v>222295.5185307996</v>
+        <v>299006.9057060315</v>
       </c>
       <c r="AF2" t="n">
         <v>1.992948833946608e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.02473958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>201079.9462360037</v>
+        <v>270470.106284364</v>
       </c>
     </row>
   </sheetData>
@@ -2886,28 +2886,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.2239823082919</v>
+        <v>200.6036785617621</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.6478123591303</v>
+        <v>274.4748030177723</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.6393193901873</v>
+        <v>248.2793130456421</v>
       </c>
       <c r="AD2" t="n">
-        <v>153223.9823082919</v>
+        <v>200603.6785617621</v>
       </c>
       <c r="AE2" t="n">
-        <v>209647.8123591302</v>
+        <v>274474.8030177723</v>
       </c>
       <c r="AF2" t="n">
         <v>1.877950745083272e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.0546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>189639.3193901873</v>
+        <v>248279.313045642</v>
       </c>
     </row>
   </sheetData>
@@ -3183,28 +3183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.9268593957288</v>
+        <v>238.5840765074829</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.9744021366235</v>
+        <v>326.4412590639824</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.2624591959441</v>
+        <v>295.2861634621976</v>
       </c>
       <c r="AD2" t="n">
-        <v>173926.8593957288</v>
+        <v>238584.0765074829</v>
       </c>
       <c r="AE2" t="n">
-        <v>237974.4021366235</v>
+        <v>326441.2590639825</v>
       </c>
       <c r="AF2" t="n">
         <v>2.047718768830535e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.40494791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>215262.4591959441</v>
+        <v>295286.1634621976</v>
       </c>
     </row>
   </sheetData>
@@ -3480,28 +3480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.5712619892176</v>
+        <v>246.757514374473</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.0115198304702</v>
+        <v>337.6245173402224</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.3872624993678</v>
+        <v>305.4021072643584</v>
       </c>
       <c r="AD2" t="n">
-        <v>188571.2619892176</v>
+        <v>246757.514374473</v>
       </c>
       <c r="AE2" t="n">
-        <v>258011.5198304702</v>
+        <v>337624.5173402224</v>
       </c>
       <c r="AF2" t="n">
         <v>1.34389390170114e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.46744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>233387.2624993678</v>
+        <v>305402.1072643584</v>
       </c>
     </row>
     <row r="3">
@@ -3586,28 +3586,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.2327267808529</v>
+        <v>195.7100504672817</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.4503122309529</v>
+        <v>267.7791251672729</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.224177168977</v>
+        <v>242.2226612917493</v>
       </c>
       <c r="AD3" t="n">
-        <v>147232.7267808529</v>
+        <v>195710.0504672817</v>
       </c>
       <c r="AE3" t="n">
-        <v>201450.3122309529</v>
+        <v>267779.1251672729</v>
       </c>
       <c r="AF3" t="n">
         <v>1.652169900911469e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.14322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>182224.177168977</v>
+        <v>242222.6612917493</v>
       </c>
     </row>
   </sheetData>
@@ -3883,28 +3883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.2091928928467</v>
+        <v>259.6911743790961</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.7796326856832</v>
+        <v>355.320921551516</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.4638221276961</v>
+        <v>321.409591494684</v>
       </c>
       <c r="AD2" t="n">
-        <v>186209.1928928467</v>
+        <v>259691.1743790961</v>
       </c>
       <c r="AE2" t="n">
-        <v>254779.6326856832</v>
+        <v>355320.921551516</v>
       </c>
       <c r="AF2" t="n">
         <v>2.04664492490003e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.68098958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>230463.8221276961</v>
+        <v>321409.591494684</v>
       </c>
     </row>
   </sheetData>
@@ -4180,28 +4180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.4547895084358</v>
+        <v>202.9512867912125</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.0176600177763</v>
+        <v>277.6869041664702</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.0236938687763</v>
+        <v>251.1848557689215</v>
       </c>
       <c r="AD2" t="n">
-        <v>145454.7895084358</v>
+        <v>202951.2867912125</v>
       </c>
       <c r="AE2" t="n">
-        <v>199017.6600177763</v>
+        <v>277686.9041664702</v>
       </c>
       <c r="AF2" t="n">
         <v>1.760353544677338e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.60546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>180023.6938687763</v>
+        <v>251184.8557689215</v>
       </c>
     </row>
     <row r="3">
@@ -4286,28 +4286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.9112573050145</v>
+        <v>192.8876416417599</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.2739752781073</v>
+        <v>263.9173808963064</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.350985356893</v>
+        <v>238.7294764740105</v>
       </c>
       <c r="AD3" t="n">
-        <v>144911.2573050145</v>
+        <v>192887.6416417599</v>
       </c>
       <c r="AE3" t="n">
-        <v>198273.9752781073</v>
+        <v>263917.3808963064</v>
       </c>
       <c r="AF3" t="n">
         <v>1.774838392086818e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>179350.985356893</v>
+        <v>238729.4764740105</v>
       </c>
     </row>
   </sheetData>
@@ -4583,28 +4583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.1438601063625</v>
+        <v>211.366157884588</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.2206267965654</v>
+        <v>289.2005020343327</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.9167634672827</v>
+        <v>261.599612015715</v>
       </c>
       <c r="AD2" t="n">
-        <v>163143.8601063625</v>
+        <v>211366.157884588</v>
       </c>
       <c r="AE2" t="n">
-        <v>223220.6267965654</v>
+        <v>289200.5020343327</v>
       </c>
       <c r="AF2" t="n">
         <v>1.57798699044795e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>201916.7634672827</v>
+        <v>261599.612015715</v>
       </c>
     </row>
     <row r="3">
@@ -4689,28 +4689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.1428430505417</v>
+        <v>194.3309754099863</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.9590852288651</v>
+        <v>265.8922138333847</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.8752707790177</v>
+        <v>240.5158341272701</v>
       </c>
       <c r="AD3" t="n">
-        <v>146142.8430505417</v>
+        <v>194330.9754099863</v>
       </c>
       <c r="AE3" t="n">
-        <v>199959.0852288651</v>
+        <v>265892.2138333847</v>
       </c>
       <c r="AF3" t="n">
         <v>1.706751421965527e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.32552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>180875.2707790177</v>
+        <v>240515.8341272701</v>
       </c>
     </row>
   </sheetData>
@@ -4986,28 +4986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.7600835930144</v>
+        <v>294.794432569625</v>
       </c>
       <c r="AB2" t="n">
-        <v>296.5807091518057</v>
+        <v>403.350748054251</v>
       </c>
       <c r="AC2" t="n">
-        <v>268.2754625240845</v>
+        <v>364.8555187662829</v>
       </c>
       <c r="AD2" t="n">
-        <v>216760.0835930144</v>
+        <v>294794.432569625</v>
       </c>
       <c r="AE2" t="n">
-        <v>296580.7091518057</v>
+        <v>403350.748054251</v>
       </c>
       <c r="AF2" t="n">
         <v>1.15547475179409e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.8671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>268275.4625240845</v>
+        <v>364855.5187662829</v>
       </c>
     </row>
     <row r="3">
@@ -5092,28 +5092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.0611751938211</v>
+        <v>197.808030269972</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.9520760150256</v>
+        <v>270.6496736896489</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.4871761287461</v>
+        <v>244.8192486919908</v>
       </c>
       <c r="AD3" t="n">
-        <v>149061.1751938211</v>
+        <v>197808.030269972</v>
       </c>
       <c r="AE3" t="n">
-        <v>203952.0760150256</v>
+        <v>270649.6736896489</v>
       </c>
       <c r="AF3" t="n">
         <v>1.58849474802535e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.08463541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>184487.1761287461</v>
+        <v>244819.2486919908</v>
       </c>
     </row>
   </sheetData>
@@ -5389,28 +5389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.4986192688893</v>
+        <v>200.5829057853441</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.3411415958899</v>
+        <v>274.4463807886469</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.6026186085568</v>
+        <v>248.2536033941735</v>
       </c>
       <c r="AD2" t="n">
-        <v>143498.6192688893</v>
+        <v>200582.9057853441</v>
       </c>
       <c r="AE2" t="n">
-        <v>196341.1415958899</v>
+        <v>274446.3807886469</v>
       </c>
       <c r="AF2" t="n">
         <v>1.851305431620403e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.78776041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>177602.6186085567</v>
+        <v>248253.6033941735</v>
       </c>
     </row>
     <row r="3">
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.7417129202396</v>
+        <v>200.8259994366944</v>
       </c>
       <c r="AB3" t="n">
-        <v>196.6737530542023</v>
+        <v>274.7789922469593</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.903486096111</v>
+        <v>248.5544708817278</v>
       </c>
       <c r="AD3" t="n">
-        <v>143741.7129202396</v>
+        <v>200825.9994366944</v>
       </c>
       <c r="AE3" t="n">
-        <v>196673.7530542023</v>
+        <v>274778.9922469592</v>
       </c>
       <c r="AF3" t="n">
         <v>1.850875880159587e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.79427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>177903.486096111</v>
+        <v>248554.4708817278</v>
       </c>
     </row>
   </sheetData>
@@ -5792,28 +5792,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.6207730488144</v>
+        <v>209.0263732606945</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.822474838599</v>
+        <v>285.9991054879108</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.8927509242469</v>
+        <v>258.7037522624943</v>
       </c>
       <c r="AD2" t="n">
-        <v>152620.7730488144</v>
+        <v>209026.3732606945</v>
       </c>
       <c r="AE2" t="n">
-        <v>208822.474838599</v>
+        <v>285999.1054879108</v>
       </c>
       <c r="AF2" t="n">
         <v>1.960591795081125e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.58203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>188892.7509242469</v>
+        <v>258703.7522624944</v>
       </c>
     </row>
   </sheetData>
@@ -9390,28 +9390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.9748031440967</v>
+        <v>228.0824096488811</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.9893156025266</v>
+        <v>312.072415167207</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.7075282889556</v>
+        <v>282.2886618601268</v>
       </c>
       <c r="AD2" t="n">
-        <v>162974.8031440967</v>
+        <v>228082.4096488811</v>
       </c>
       <c r="AE2" t="n">
-        <v>222989.3156025266</v>
+        <v>312072.415167207</v>
       </c>
       <c r="AF2" t="n">
         <v>2.02884635400946e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.57161458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>201707.5282889556</v>
+        <v>282288.6618601268</v>
       </c>
     </row>
   </sheetData>
@@ -9687,28 +9687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.739805173741</v>
+        <v>292.7650788246633</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.343498622621</v>
+        <v>400.5740967316258</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.824399806805</v>
+        <v>362.3438671488345</v>
       </c>
       <c r="AD2" t="n">
-        <v>210739.805173741</v>
+        <v>292765.0788246633</v>
       </c>
       <c r="AE2" t="n">
-        <v>288343.498622621</v>
+        <v>400574.0967316258</v>
       </c>
       <c r="AF2" t="n">
         <v>1.993872631956167e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.92057291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>260824.399806805</v>
+        <v>362343.8671488345</v>
       </c>
     </row>
   </sheetData>
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.1162594933954</v>
+        <v>205.804705227917</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.6592006669652</v>
+        <v>281.5910771555043</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.3176909893423</v>
+        <v>254.7164199674247</v>
       </c>
       <c r="AD2" t="n">
-        <v>148116.2594933954</v>
+        <v>205804.705227917</v>
       </c>
       <c r="AE2" t="n">
-        <v>202659.2006669652</v>
+        <v>281591.0771555043</v>
       </c>
       <c r="AF2" t="n">
         <v>1.686740974035755e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.7421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>183317.6909893423</v>
+        <v>254716.4199674247</v>
       </c>
     </row>
     <row r="3">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.0845929730959</v>
+        <v>193.1194491264768</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.511140786206</v>
+        <v>264.2345501235203</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.5655161217628</v>
+        <v>239.016375515329</v>
       </c>
       <c r="AD3" t="n">
-        <v>145084.5929730959</v>
+        <v>193119.4491264767</v>
       </c>
       <c r="AE3" t="n">
-        <v>198511.140786206</v>
+        <v>264234.5501235203</v>
       </c>
       <c r="AF3" t="n">
         <v>1.748931387397407e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.36458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>179565.5161217627</v>
+        <v>239016.375515329</v>
       </c>
     </row>
   </sheetData>
@@ -10387,28 +10387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.2604299643243</v>
+        <v>265.6452483331627</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.5828639618986</v>
+        <v>363.4675482106741</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.5181134365077</v>
+        <v>328.7787155393544</v>
       </c>
       <c r="AD2" t="n">
-        <v>207260.4299643243</v>
+        <v>265645.2483331627</v>
       </c>
       <c r="AE2" t="n">
-        <v>283582.8639618986</v>
+        <v>363467.5482106741</v>
       </c>
       <c r="AF2" t="n">
         <v>1.244441125855785e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.15755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>256518.1134365077</v>
+        <v>328778.7155393544</v>
       </c>
     </row>
     <row r="3">
@@ -10493,28 +10493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.3962961993819</v>
+        <v>197.0106203564765</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.0423592424433</v>
+        <v>269.5586222667623</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.6642814481433</v>
+        <v>243.8323256856039</v>
       </c>
       <c r="AD3" t="n">
-        <v>148396.2961993819</v>
+        <v>197010.6203564765</v>
       </c>
       <c r="AE3" t="n">
-        <v>203042.3592424433</v>
+        <v>269558.6222667623</v>
       </c>
       <c r="AF3" t="n">
         <v>1.613960048454861e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.14973958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>183664.2814481433</v>
+        <v>243832.3256856039</v>
       </c>
     </row>
   </sheetData>
@@ -10790,28 +10790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.0573900871128</v>
+        <v>369.3837530222214</v>
       </c>
       <c r="AB2" t="n">
-        <v>369.5044352083851</v>
+        <v>505.4071469460694</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.239450514828</v>
+        <v>457.1717981849217</v>
       </c>
       <c r="AD2" t="n">
-        <v>270057.3900871128</v>
+        <v>369383.7530222214</v>
       </c>
       <c r="AE2" t="n">
-        <v>369504.4352083851</v>
+        <v>505407.1469460694</v>
       </c>
       <c r="AF2" t="n">
         <v>1.830459721638695e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.70572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>334239.450514828</v>
+        <v>457171.7981849217</v>
       </c>
     </row>
   </sheetData>
@@ -11087,28 +11087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.3930378500464</v>
+        <v>208.9501997866475</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.510877492677</v>
+        <v>285.8948815801834</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.6108919916899</v>
+        <v>258.6094753382412</v>
       </c>
       <c r="AD2" t="n">
-        <v>152393.0378500464</v>
+        <v>208950.1997866475</v>
       </c>
       <c r="AE2" t="n">
-        <v>208510.877492677</v>
+        <v>285894.8815801834</v>
       </c>
       <c r="AF2" t="n">
         <v>1.929273799398351e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.22395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>188610.8919916899</v>
+        <v>258609.4753382412</v>
       </c>
     </row>
   </sheetData>
@@ -11384,28 +11384,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.0596107803897</v>
+        <v>201.3551330563413</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.1087149311233</v>
+        <v>275.5029762090875</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.2969358219716</v>
+        <v>249.2093588306287</v>
       </c>
       <c r="AD2" t="n">
-        <v>144059.6107803897</v>
+        <v>201355.1330563413</v>
       </c>
       <c r="AE2" t="n">
-        <v>197108.7149311233</v>
+        <v>275502.9762090875</v>
       </c>
       <c r="AF2" t="n">
         <v>1.812814265818433e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.63802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>178296.9358219716</v>
+        <v>249209.3588306287</v>
       </c>
     </row>
     <row r="3">
@@ -11490,28 +11490,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.4389373250676</v>
+        <v>201.7344596010192</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.6277262442574</v>
+        <v>276.0219875222217</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.7664134238173</v>
+        <v>249.6788364324744</v>
       </c>
       <c r="AD3" t="n">
-        <v>144438.9373250676</v>
+        <v>201734.4596010192</v>
       </c>
       <c r="AE3" t="n">
-        <v>197627.7262442574</v>
+        <v>276021.9875222216</v>
       </c>
       <c r="AF3" t="n">
         <v>1.808726146579898e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.6640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>178766.4134238173</v>
+        <v>249678.8364324744</v>
       </c>
     </row>
   </sheetData>
